--- a/raw/variable_importance_allvars.xlsx
+++ b/raw/variable_importance_allvars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au1/Documents/Desktop/WRL/R/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{9935207F-4DE9-42A9-8B76-726CAE312541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D2F237-4832-4675-ABB1-C623ACF6A5DD}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{9935207F-4DE9-42A9-8B76-726CAE312541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41164DDB-65C2-4FC8-B283-269FD4D09024}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{8B6B5DA5-97C4-47E1-B27B-CDC310F892C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8B6B5DA5-97C4-47E1-B27B-CDC310F892C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3456F7-00C3-4E3C-B62A-A06A984B804A}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="G387" sqref="G387"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1580,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>53.445</v>
+        <v>59.408000000000001</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>121.02200000000001</v>
+        <v>143.13399999999999</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>116.26600000000001</v>
+        <v>123.791</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>79.599000000000004</v>
+        <v>91.686999999999998</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -1645,7 +1645,7 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <v>108.887</v>
+        <v>133.501</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>149.78200000000001</v>
+        <v>146.68199999999999</v>
       </c>
       <c r="C63">
         <v>9</v>
@@ -1679,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="B64">
-        <v>72.602000000000004</v>
+        <v>78.361999999999995</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -1696,7 +1696,7 @@
         <v>28</v>
       </c>
       <c r="B65">
-        <v>75.486000000000004</v>
+        <v>81.802000000000007</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -1713,7 +1713,7 @@
         <v>38</v>
       </c>
       <c r="B66">
-        <v>77.391000000000005</v>
+        <v>78.174000000000007</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -1730,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="B67">
-        <v>78.174999999999997</v>
+        <v>79.5</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>140.405</v>
+        <v>141.53800000000001</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -1764,7 +1764,7 @@
         <v>43</v>
       </c>
       <c r="B69">
-        <v>77.3</v>
+        <v>85.094999999999999</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -1781,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="B70">
-        <v>89.691999999999993</v>
+        <v>99.381</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -1798,7 +1798,7 @@
         <v>56</v>
       </c>
       <c r="B71">
-        <v>60.939</v>
+        <v>74.054000000000002</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -1815,7 +1815,7 @@
         <v>53</v>
       </c>
       <c r="B72">
-        <v>78.677999999999997</v>
+        <v>83.045000000000002</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>289.75</v>
+        <v>321.85599999999999</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -1849,7 +1849,7 @@
         <v>22</v>
       </c>
       <c r="B74">
-        <v>89.244</v>
+        <v>89.587999999999994</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -1866,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="B75">
-        <v>92.248000000000005</v>
+        <v>101.408</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -1883,7 +1883,7 @@
         <v>33</v>
       </c>
       <c r="B76">
-        <v>69.944000000000003</v>
+        <v>82.043000000000006</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -1900,7 +1900,7 @@
         <v>15</v>
       </c>
       <c r="B77">
-        <v>83.2</v>
+        <v>93.543999999999997</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>176.489</v>
+        <v>166.53</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="B79">
-        <v>85.369</v>
+        <v>82.834999999999994</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -1951,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="B80">
-        <v>102.65</v>
+        <v>95.105000000000004</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -1968,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="B81">
-        <v>81.885000000000005</v>
+        <v>91.308000000000007</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -1985,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>95.956999999999994</v>
+        <v>104.496</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>165.96600000000001</v>
+        <v>168.26400000000001</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -2019,7 +2019,7 @@
         <v>27</v>
       </c>
       <c r="B84">
-        <v>73.216999999999999</v>
+        <v>79.664000000000001</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -2036,7 +2036,7 @@
         <v>21</v>
       </c>
       <c r="B85">
-        <v>64.653999999999996</v>
+        <v>83.14</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -2053,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="B86">
-        <v>74.888999999999996</v>
+        <v>81.328999999999994</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -2070,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="B87">
-        <v>65.793000000000006</v>
+        <v>73.867999999999995</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>120.252</v>
+        <v>128.28399999999999</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="B89">
-        <v>113.792</v>
+        <v>136.453</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -2121,7 +2121,7 @@
         <v>37</v>
       </c>
       <c r="B90">
-        <v>78.754000000000005</v>
+        <v>95.382999999999996</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -2138,7 +2138,7 @@
         <v>51</v>
       </c>
       <c r="B91">
-        <v>75.712999999999994</v>
+        <v>90.950999999999993</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -2155,7 +2155,7 @@
         <v>26</v>
       </c>
       <c r="B92">
-        <v>90.552999999999997</v>
+        <v>88.119</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -2172,7 +2172,7 @@
         <v>20</v>
       </c>
       <c r="B93">
-        <v>83.912999999999997</v>
+        <v>89.825999999999993</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -2189,7 +2189,7 @@
         <v>46</v>
       </c>
       <c r="B94">
-        <v>67.171999999999997</v>
+        <v>72.498000000000005</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -2206,7 +2206,7 @@
         <v>45</v>
       </c>
       <c r="B95">
-        <v>58.415999999999997</v>
+        <v>65.227999999999994</v>
       </c>
       <c r="C95">
         <v>9</v>
@@ -2223,7 +2223,7 @@
         <v>54</v>
       </c>
       <c r="B96">
-        <v>57.94</v>
+        <v>65.912999999999997</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -2240,7 +2240,7 @@
         <v>39</v>
       </c>
       <c r="B97">
-        <v>58.298999999999999</v>
+        <v>77.915999999999997</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -2257,7 +2257,7 @@
         <v>49</v>
       </c>
       <c r="B98">
-        <v>58.790999999999997</v>
+        <v>62.484999999999999</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -2274,7 +2274,7 @@
         <v>40</v>
       </c>
       <c r="B99">
-        <v>52.104999999999997</v>
+        <v>71.840999999999994</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -2291,7 +2291,7 @@
         <v>34</v>
       </c>
       <c r="B100">
-        <v>59.029000000000003</v>
+        <v>60.262999999999998</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -2308,7 +2308,7 @@
         <v>55</v>
       </c>
       <c r="B101">
-        <v>55.811999999999998</v>
+        <v>61.933</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -2322,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="B102">
-        <v>108.553</v>
+        <v>106.29900000000001</v>
       </c>
       <c r="C102">
         <v>9</v>
@@ -2339,7 +2339,7 @@
         <v>25</v>
       </c>
       <c r="B103">
-        <v>67.08</v>
+        <v>70.507999999999996</v>
       </c>
       <c r="C103">
         <v>9</v>
@@ -2356,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="B104">
-        <v>89.227000000000004</v>
+        <v>112.47</v>
       </c>
       <c r="C104">
         <v>9</v>
@@ -2373,7 +2373,7 @@
         <v>29</v>
       </c>
       <c r="B105">
-        <v>77.692999999999998</v>
+        <v>75.475999999999999</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -2390,7 +2390,7 @@
         <v>44</v>
       </c>
       <c r="B106">
-        <v>76.570999999999998</v>
+        <v>78.953999999999994</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2407,7 +2407,7 @@
         <v>47</v>
       </c>
       <c r="B107">
-        <v>63.951999999999998</v>
+        <v>61.826999999999998</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -2424,7 +2424,7 @@
         <v>52</v>
       </c>
       <c r="B108">
-        <v>67.307000000000002</v>
+        <v>71.031999999999996</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="B109">
-        <v>58.768999999999998</v>
+        <v>62.521000000000001</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -2458,7 +2458,7 @@
         <v>30</v>
       </c>
       <c r="B110">
-        <v>54.859000000000002</v>
+        <v>62.558999999999997</v>
       </c>
       <c r="C110">
         <v>9</v>
@@ -2475,7 +2475,7 @@
         <v>42</v>
       </c>
       <c r="B111">
-        <v>56.185000000000002</v>
+        <v>63.462000000000003</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="B112">
-        <v>69.807000000000002</v>
+        <v>66.397000000000006</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -2509,7 +2509,7 @@
         <v>48</v>
       </c>
       <c r="B113">
-        <v>52.094999999999999</v>
+        <v>60.197000000000003</v>
       </c>
       <c r="C113">
         <v>9</v>
